--- a/data/stm_invivo/KP_7.5wks/KP_7.5wks_IDtoSampleType.xlsx
+++ b/data/stm_invivo/KP_7.5wks/KP_7.5wks_IDtoSampleType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jesse/Dropbox (MIT)/Bhatia Lab/_Projects/Lung Cancer-Share/Original Urine Data/7.5wks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melodi/protease_activity_analysis/data/stm_invivo/KP_7.5wks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42289DA8-D3CD-994F-8B5E-DBC6882DA593}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF95CD9-E3B8-F247-A1AA-0E29B561C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="1920" windowWidth="26840" windowHeight="15040" xr2:uid="{BD94B0A3-C2A4-5745-A0BF-AD20916E29CE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{BD94B0A3-C2A4-5745-A0BF-AD20916E29CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Control</t>
   </si>
@@ -36,9 +36,6 @@
     <t>SampleType</t>
   </si>
   <si>
-    <t>C12-1C</t>
-  </si>
-  <si>
     <t>KP</t>
   </si>
   <si>
@@ -114,73 +111,10 @@
     <t>C12-2B</t>
   </si>
   <si>
-    <t>KP1-1B</t>
-  </si>
-  <si>
-    <t>KP2-1B</t>
-  </si>
-  <si>
-    <t>KP3-1B</t>
-  </si>
-  <si>
-    <t>KP4-1B</t>
-  </si>
-  <si>
-    <t>KP5-1B</t>
-  </si>
-  <si>
-    <t>KP7-1B</t>
-  </si>
-  <si>
-    <t>KP8-1B</t>
-  </si>
-  <si>
-    <t>KP9-1B</t>
-  </si>
-  <si>
-    <t>KP10-1B</t>
-  </si>
-  <si>
-    <t>KP11-1B</t>
-  </si>
-  <si>
-    <t>KP12-1B</t>
-  </si>
-  <si>
-    <t>C1-1B</t>
-  </si>
-  <si>
-    <t>C2-1B</t>
-  </si>
-  <si>
-    <t>C3-1B</t>
-  </si>
-  <si>
-    <t>C4-1B</t>
-  </si>
-  <si>
-    <t>C5-1B</t>
-  </si>
-  <si>
-    <t>C6-1B</t>
-  </si>
-  <si>
-    <t>C7-1B</t>
-  </si>
-  <si>
-    <t>C8-1B</t>
-  </si>
-  <si>
-    <t>C9-1B</t>
-  </si>
-  <si>
-    <t>C10-1B</t>
-  </si>
-  <si>
-    <t>C11-1B</t>
-  </si>
-  <si>
-    <t>C12-1B</t>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
@@ -535,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C437C01B-3887-0842-8B88-9B9BBBDDA988}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,103 +487,103 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -657,7 +591,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -665,7 +599,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -673,7 +607,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -681,7 +615,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -689,7 +623,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -697,7 +631,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -705,7 +639,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -713,7 +647,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -721,7 +655,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -729,7 +663,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -737,7 +671,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -745,198 +679,11 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
